--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="43">
   <si>
     <t>MORNING</t>
   </si>
@@ -169,11 +169,23 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>（外出）河北幸福消费金融支持部署实施</t>
+    <t>请事假一天</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>请事假一天</t>
+    <t>河北幸福消费金融支持部署实施</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>（外出）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福消费金融支持部署实施</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>（外出）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -724,6 +736,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,8 +767,8 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1038,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,11 +1068,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1067,14 +1081,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1122,10 +1136,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="50">
         <v>2016</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1136,16 +1150,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1224,7 +1238,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -1266,7 +1280,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1302,7 +1316,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1376,8 +1390,12 @@
         <f>B12</f>
         <v>42857</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="G11" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1411,15 +1429,15 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="46">
         <f>B7+1</f>
         <v>42857</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="40"/>
       <c r="G12" s="25"/>
@@ -1433,7 +1451,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1450,7 +1468,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1486,7 +1504,9 @@
         <f>B17</f>
         <v>42858</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
@@ -1496,12 +1516,9 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="46">
         <f>B12+1</f>
         <v>42858</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>39</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
@@ -1509,7 +1526,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1517,7 +1534,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1530,34 +1547,38 @@
         <f>B22</f>
         <v>42859</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="46">
         <f>B17+1</f>
         <v>42859</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1570,34 +1591,38 @@
         <f>B27</f>
         <v>42860</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>42</v>
+      </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="46">
         <f>B22+1</f>
         <v>42860</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +1641,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="46">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -1626,14 +1651,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +1677,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="46">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -1662,14 +1687,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,26 +1730,24 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="46">
         <f>B37+1</f>
         <v>42863</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>35</v>
-      </c>
+      <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1748,26 +1771,24 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="46">
         <f>B44+1</f>
         <v>42864</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>36</v>
-      </c>
+      <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1791,26 +1812,24 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="46">
         <f>B49+1</f>
         <v>42865</v>
       </c>
-      <c r="C54" s="39" t="s">
-        <v>36</v>
-      </c>
+      <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1829,25 +1848,23 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="46">
         <f>B54+1</f>
         <v>42866</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>36</v>
-      </c>
+      <c r="C59" s="39"/>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1866,26 +1883,24 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="46">
         <f>B59+1</f>
         <v>42867</v>
       </c>
-      <c r="C64" s="39" t="s">
-        <v>36</v>
-      </c>
+      <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1904,7 +1919,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="46">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -1912,14 +1927,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1938,7 +1953,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="46">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -1948,20 +1963,32 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -1969,21 +1996,10 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2007,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2020,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2075,10 +2091,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="50">
         <v>2016</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2089,16 +2105,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42461</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2177,7 +2193,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2221,7 +2237,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2257,7 +2273,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2366,7 +2382,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="46">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2388,7 +2404,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="39" t="s">
         <v>33</v>
       </c>
@@ -2409,7 +2425,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2455,7 +2471,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="46">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2470,7 +2486,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2478,7 +2494,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2497,7 +2513,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="46">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2511,14 +2527,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2537,7 +2553,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="46">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2551,14 +2567,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2577,7 +2593,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="46">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -2587,14 +2603,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2613,7 +2629,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="46">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -2623,14 +2639,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2666,7 +2682,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="46">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -2678,14 +2694,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2709,7 +2725,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="46">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -2721,14 +2737,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2752,7 +2768,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="46">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -2764,14 +2780,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2790,7 +2806,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="46">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -2801,14 +2817,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2827,7 +2843,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="46">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -2839,14 +2855,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2865,7 +2881,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="46">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -2873,14 +2889,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2899,7 +2915,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="46">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -2909,27 +2925,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2942,6 +2951,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2973,11 +2989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2986,14 +3002,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3041,10 +3057,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="50">
         <v>2016</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3055,16 +3071,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42430</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3143,7 +3159,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>E2</f>
         <v>42830</v>
       </c>
@@ -3187,7 +3203,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3223,7 +3239,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3332,7 +3348,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="46">
         <f>B7+1</f>
         <v>42831</v>
       </c>
@@ -3354,7 +3370,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3371,7 +3387,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3417,7 +3433,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="46">
         <f>B12+1</f>
         <v>42832</v>
       </c>
@@ -3432,7 +3448,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3440,7 +3456,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3459,7 +3475,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="46">
         <f>B17+1</f>
         <v>42833</v>
       </c>
@@ -3469,14 +3485,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3495,7 +3511,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="46">
         <f>B22+1</f>
         <v>42834</v>
       </c>
@@ -3505,14 +3521,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3531,7 +3547,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="46">
         <f>B27+1</f>
         <v>42835</v>
       </c>
@@ -3545,14 +3561,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3571,7 +3587,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="46">
         <f>B32+1</f>
         <v>42836</v>
       </c>
@@ -3585,14 +3601,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3628,7 +3644,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="46">
         <f>B37+1</f>
         <v>42837</v>
       </c>
@@ -3642,14 +3658,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3673,7 +3689,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="46">
         <f>B44+1</f>
         <v>42838</v>
       </c>
@@ -3687,14 +3703,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3718,7 +3734,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="46">
         <f>B49+1</f>
         <v>42839</v>
       </c>
@@ -3732,14 +3748,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3758,7 +3774,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="46">
         <f>B54+1</f>
         <v>42840</v>
       </c>
@@ -3766,14 +3782,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3792,7 +3808,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="46">
         <f>B59+1</f>
         <v>42841</v>
       </c>
@@ -3802,14 +3818,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3828,7 +3844,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="46">
         <f>B64+1</f>
         <v>42842</v>
       </c>
@@ -3842,14 +3858,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3868,7 +3884,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="46">
         <f>B69+1</f>
         <v>42843</v>
       </c>
@@ -3882,20 +3898,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -3910,11 +3931,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3946,11 +3962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3959,14 +3975,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -4014,10 +4030,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="50">
         <v>2016</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4028,16 +4044,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42430</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4116,7 +4132,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -4160,7 +4176,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4196,7 +4212,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4305,7 +4321,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="46">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -4327,7 +4343,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -4344,7 +4360,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4390,7 +4406,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="46">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -4405,7 +4421,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -4413,7 +4429,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4432,7 +4448,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="46">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -4446,14 +4462,14 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4472,7 +4488,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="46">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -4486,14 +4502,14 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4512,7 +4528,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="46">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -4524,14 +4540,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4550,7 +4566,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="46">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -4562,14 +4578,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -4604,7 +4620,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="46">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -4618,14 +4634,14 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4649,7 +4665,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="46">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -4663,14 +4679,14 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4694,7 +4710,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="46">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -4708,14 +4724,14 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4734,7 +4750,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="46">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -4748,14 +4764,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4774,7 +4790,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="46">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -4788,14 +4804,14 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4814,7 +4830,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="46">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -4828,14 +4844,14 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4854,7 +4870,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="46">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -4864,20 +4880,27 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4890,13 +4913,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="43">
   <si>
     <t>MORNING</t>
   </si>
@@ -738,6 +738,8 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,8 +769,6 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,11 +1068,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1081,14 +1081,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="52">
         <v>2016</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1150,16 +1150,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="52">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="46">
+      <c r="B7" s="48">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1316,7 +1316,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1390,10 +1390,10 @@
         <f>B12</f>
         <v>42857</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="14"/>
@@ -1429,7 +1429,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46">
+      <c r="B12" s="48">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1468,7 +1468,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="46">
+      <c r="B17" s="48">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1547,17 +1547,17 @@
         <f>B22</f>
         <v>42859</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="46">
+      <c r="B22" s="48">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -1571,14 +1571,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1591,17 +1591,17 @@
         <f>B27</f>
         <v>42860</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="46">
+      <c r="B27" s="48">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -1615,14 +1615,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="44"/>
       <c r="D28" s="45"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="46">
+      <c r="B32" s="48">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -1651,14 +1651,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="46">
+      <c r="B37" s="48">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -1687,14 +1687,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1724,30 +1724,38 @@
         <f>B44</f>
         <v>42863</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="46">
+      <c r="B44" s="48">
         <f>B37+1</f>
         <v>42863</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="46"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="47"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1765,30 +1773,42 @@
         <f>B49</f>
         <v>42864</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14"/>
+      <c r="C48" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="46">
+      <c r="B49" s="48">
         <f>B44+1</f>
         <v>42864</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="46"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="47"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1806,30 +1826,42 @@
         <f>B54</f>
         <v>42865</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="14"/>
+      <c r="C53" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="46">
+      <c r="B54" s="48">
         <f>B49+1</f>
         <v>42865</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="15"/>
+      <c r="C54" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="46"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="47"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1842,29 +1874,42 @@
         <f>B59</f>
         <v>42866</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="14"/>
+      <c r="C58" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="46">
+      <c r="B59" s="48">
         <f>B54+1</f>
         <v>42866</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="47"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1877,30 +1922,38 @@
         <f>B64</f>
         <v>42867</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="46">
+      <c r="B64" s="48">
         <f>B59+1</f>
         <v>42867</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="47"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +1972,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="46">
+      <c r="B69" s="48">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -1927,14 +1980,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="46"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="47"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +2006,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="46">
+      <c r="B74" s="48">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -1963,20 +2016,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="46"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="47"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1989,13 +2049,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2076,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2089,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +2144,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="52">
         <v>2016</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +2158,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="52">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42461</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2193,7 +2246,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="46">
+      <c r="B7" s="48">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2237,7 +2290,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2273,7 +2326,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2382,7 +2435,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46">
+      <c r="B12" s="48">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2404,7 +2457,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="39" t="s">
         <v>33</v>
       </c>
@@ -2425,7 +2478,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2471,7 +2524,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="46">
+      <c r="B17" s="48">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2486,7 +2539,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2494,7 +2547,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2513,7 +2566,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="46">
+      <c r="B22" s="48">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2527,14 +2580,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2553,7 +2606,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="46">
+      <c r="B27" s="48">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2567,14 +2620,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2593,7 +2646,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="46">
+      <c r="B32" s="48">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -2603,14 +2656,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2629,7 +2682,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="46">
+      <c r="B37" s="48">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -2639,14 +2692,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2682,7 +2735,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="46">
+      <c r="B44" s="48">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -2694,14 +2747,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="46"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="47"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2725,7 +2778,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="46">
+      <c r="B49" s="48">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -2737,14 +2790,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="46"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="47"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2768,7 +2821,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="46">
+      <c r="B54" s="48">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -2780,14 +2833,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="46"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="47"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2806,7 +2859,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="46">
+      <c r="B59" s="48">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -2817,14 +2870,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="47"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2843,7 +2896,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="46">
+      <c r="B64" s="48">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -2855,14 +2908,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="47"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2881,7 +2934,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="46">
+      <c r="B69" s="48">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -2889,14 +2942,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="46"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="47"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2915,7 +2968,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="46">
+      <c r="B74" s="48">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -2925,20 +2978,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="46"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="47"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2951,13 +3011,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2989,11 +3042,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3002,14 +3055,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3057,10 +3110,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="52">
         <v>2016</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3071,16 +3124,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="52">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42430</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3159,7 +3212,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="46">
+      <c r="B7" s="48">
         <f>E2</f>
         <v>42830</v>
       </c>
@@ -3203,7 +3256,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3239,7 +3292,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3348,7 +3401,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46">
+      <c r="B12" s="48">
         <f>B7+1</f>
         <v>42831</v>
       </c>
@@ -3370,7 +3423,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3387,7 +3440,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3433,7 +3486,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="46">
+      <c r="B17" s="48">
         <f>B12+1</f>
         <v>42832</v>
       </c>
@@ -3448,7 +3501,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3456,7 +3509,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3475,7 +3528,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="46">
+      <c r="B22" s="48">
         <f>B17+1</f>
         <v>42833</v>
       </c>
@@ -3485,14 +3538,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3511,7 +3564,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="46">
+      <c r="B27" s="48">
         <f>B22+1</f>
         <v>42834</v>
       </c>
@@ -3521,14 +3574,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3547,7 +3600,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="46">
+      <c r="B32" s="48">
         <f>B27+1</f>
         <v>42835</v>
       </c>
@@ -3561,14 +3614,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3587,7 +3640,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="46">
+      <c r="B37" s="48">
         <f>B32+1</f>
         <v>42836</v>
       </c>
@@ -3601,14 +3654,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3644,7 +3697,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="46">
+      <c r="B44" s="48">
         <f>B37+1</f>
         <v>42837</v>
       </c>
@@ -3658,14 +3711,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="46"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="47"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3689,7 +3742,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="46">
+      <c r="B49" s="48">
         <f>B44+1</f>
         <v>42838</v>
       </c>
@@ -3703,14 +3756,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="46"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="47"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3734,7 +3787,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="46">
+      <c r="B54" s="48">
         <f>B49+1</f>
         <v>42839</v>
       </c>
@@ -3748,14 +3801,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="46"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="47"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3774,7 +3827,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="46">
+      <c r="B59" s="48">
         <f>B54+1</f>
         <v>42840</v>
       </c>
@@ -3782,14 +3835,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="47"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3808,7 +3861,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="46">
+      <c r="B64" s="48">
         <f>B59+1</f>
         <v>42841</v>
       </c>
@@ -3818,14 +3871,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="47"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3844,7 +3897,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="46">
+      <c r="B69" s="48">
         <f>B64+1</f>
         <v>42842</v>
       </c>
@@ -3858,14 +3911,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="46"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="47"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3884,7 +3937,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="46">
+      <c r="B74" s="48">
         <f>B69+1</f>
         <v>42843</v>
       </c>
@@ -3898,25 +3951,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="46"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="47"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -3931,6 +3979,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3962,11 +4015,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3975,14 +4028,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -4030,10 +4083,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="52">
         <v>2016</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4044,16 +4097,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="52">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42430</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4132,7 +4185,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="46">
+      <c r="B7" s="48">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -4176,7 +4229,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4212,7 +4265,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4321,7 +4374,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46">
+      <c r="B12" s="48">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -4343,7 +4396,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -4360,7 +4413,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4406,7 +4459,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="46">
+      <c r="B17" s="48">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -4421,7 +4474,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -4429,7 +4482,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4448,7 +4501,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="46">
+      <c r="B22" s="48">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -4462,14 +4515,14 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4488,7 +4541,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="46">
+      <c r="B27" s="48">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -4502,14 +4555,14 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4528,7 +4581,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="46">
+      <c r="B32" s="48">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -4540,14 +4593,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4566,7 +4619,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="46">
+      <c r="B37" s="48">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -4578,14 +4631,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -4620,7 +4673,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="46">
+      <c r="B44" s="48">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -4634,14 +4687,14 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="46"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="47"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4665,7 +4718,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="46">
+      <c r="B49" s="48">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -4679,14 +4732,14 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="46"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="47"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4710,7 +4763,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="46">
+      <c r="B54" s="48">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -4724,14 +4777,14 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="46"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="47"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4750,7 +4803,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="46">
+      <c r="B59" s="48">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -4764,14 +4817,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="47"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4790,7 +4843,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="46">
+      <c r="B64" s="48">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -4804,14 +4857,14 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="47"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4830,7 +4883,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="46">
+      <c r="B69" s="48">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -4844,14 +4897,14 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="46"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="47"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4870,7 +4923,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="46">
+      <c r="B74" s="48">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -4880,27 +4933,20 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="46"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="47"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4913,6 +4959,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="45">
   <si>
     <t>MORNING</t>
   </si>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>（外出）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司远程支撑华融金交以及河北幸福月底正式上线前的支撑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司远程支撑华融金交以及河北幸福月底正式上线前的支撑</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1053,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1756,9 @@
         <f>B37+1</f>
         <v>42877</v>
       </c>
-      <c r="C44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="D44" s="39"/>
       <c r="E44" s="15"/>
     </row>
@@ -1789,7 +1799,9 @@
         <f>B44+1</f>
         <v>42878</v>
       </c>
-      <c r="C49" s="39"/>
+      <c r="C49" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39"/>
     </row>
@@ -1830,7 +1842,9 @@
         <f>B49+1</f>
         <v>42879</v>
       </c>
-      <c r="C54" s="39"/>
+      <c r="C54" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
     </row>
@@ -1866,7 +1880,9 @@
         <f>B54+1</f>
         <v>42880</v>
       </c>
-      <c r="C59" s="39"/>
+      <c r="C59" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
     </row>
@@ -1902,7 +1918,9 @@
         <f>B59+1</f>
         <v>42881</v>
       </c>
-      <c r="C64" s="39"/>
+      <c r="C64" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="15"/>
     </row>
@@ -1992,6 +2010,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -1999,18 +2029,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3000,6 +3018,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3012,13 +3037,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3962,6 +3980,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3974,13 +3999,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4935,11 +4953,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -4954,6 +4967,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5917,13 +5935,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5936,6 +5947,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="47">
   <si>
     <t>MORNING</t>
   </si>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>公司远程支撑华融金交以及河北幸福月底正式上线前的支撑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司远程支撑华融金交以及河北幸福月底正式上线前的支撑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1061,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1757,9 +1765,11 @@
         <v>42877</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="39"/>
+        <v>46</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2010,6 +2020,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2022,13 +2039,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,13 +3028,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3037,6 +3040,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3980,13 +3990,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3999,6 +4002,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4953,6 +4963,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -4967,11 +4982,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5935,6 +5945,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5947,13 +5964,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="68">
   <si>
     <t>MORNING</t>
   </si>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>菜市口支撑无纸化产品的信息安全测评</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑无纸化信息安全测评事宜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑河北幸福消费金融上线</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1146,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1768,8 +1776,12 @@
         <f>B32+1</f>
         <v>42890</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="C37" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1821,8 +1833,12 @@
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1862,8 +1878,12 @@
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="C49" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1903,8 +1923,12 @@
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="C54" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1939,8 +1963,12 @@
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="C59" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="E59" s="39"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1975,8 +2003,12 @@
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,6 +2099,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -2074,18 +2118,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,6 +3110,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -3085,18 +3129,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4086,6 +4118,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -4093,18 +4137,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5048,6 +5080,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5060,13 +5099,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6021,11 +6053,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -6040,6 +6067,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7003,13 +7035,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -7022,6 +7047,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="2"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
     <sheet name="24-25周" sheetId="7" r:id="rId2"/>
     <sheet name="26-27周" sheetId="8" r:id="rId3"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="28-29周" sheetId="9" r:id="rId4"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="80">
   <si>
     <t>分组</t>
   </si>
@@ -260,19 +261,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>准备售前PPT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行售前PPT演讲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>处理中石油灌多个章问题</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>处理中石油灌多个章问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写焦作中旅银行无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利申请</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全评测</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置搭建</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,13 +967,31 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,19 +1003,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1407,13 +1425,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1431,47 +1449,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1564,13 +1582,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1588,47 +1606,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1713,6 +1731,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1721,16 +1749,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1753,13 +1771,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1777,47 +1795,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1902,13 +1920,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1926,47 +1944,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2043,6 +2061,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2072,15 +2426,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2089,19 +2444,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2113,87 +2468,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="B2" s="36">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="37"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2202,35 +2557,23 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -2238,19 +2581,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2262,87 +2605,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="37"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2350,43 +2693,36 @@
       <c r="A9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>75</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="47"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2395,16 +2731,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2412,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2428,32 +2754,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="39"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2462,8 +2788,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2844,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2538,7 +2864,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2556,7 +2882,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2574,7 +2900,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2594,7 +2920,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2612,7 +2938,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2630,7 +2956,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2650,7 +2976,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2668,7 +2994,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2706,7 +3032,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2726,7 +3052,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2744,7 +3070,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2762,7 +3088,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2782,7 +3108,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2800,7 +3126,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +3144,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2838,7 +3164,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2856,7 +3182,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2914,7 +3240,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="41" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2934,7 +3260,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2952,7 +3278,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2972,7 +3298,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2990,7 +3316,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3008,7 +3334,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3026,7 +3352,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3044,7 +3370,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3062,7 +3388,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3080,7 +3406,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3098,7 +3424,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3116,7 +3442,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3134,7 +3460,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3153,6 +3479,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3163,11 +3494,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="91">
   <si>
     <t>分组</t>
   </si>
@@ -273,15 +273,59 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>专利申请</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>安全评测</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>预置搭建</t>
+    <t>保联网络科技无纸化交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给河北银行整理行业内APP端线上贷款的无纸化案例。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备明天亿联的售前交流PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加产品汇报会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威海商业银行移动营销的Demo准备和电话交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备亿联交流后的文档。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿联的无纸化售前交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家信息中心的法律风险评估提供相关文档和资质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家信息中心的法律风险评估提供相关文档和资质，已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化小组内部讨论会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威海商业银行Demo远程支撑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福巡检</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威海商业银行远程支撑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,14 +1014,26 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -992,21 +1048,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1425,13 +1466,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1449,47 +1490,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="39">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1582,13 +1623,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1606,47 +1647,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1731,16 +1772,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1749,6 +1780,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,13 +1812,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1795,47 +1836,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1920,13 +1961,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1944,47 +1985,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2061,6 +2102,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2090,15 +2467,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2107,19 +2485,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2131,87 +2509,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="39">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2220,34 +2598,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2256,19 +2634,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2280,87 +2658,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2369,47 +2747,45 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2423,314 +2799,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
-        <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="36">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2754,32 +2827,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2788,8 +2861,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2844,7 +2917,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2864,7 +2937,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2955,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2900,7 +2973,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2920,7 +2993,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2938,7 +3011,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2956,7 +3029,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2976,7 +3049,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2994,7 +3067,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3105,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3052,7 +3125,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3070,7 +3143,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3088,7 +3161,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3108,7 +3181,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +3199,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3217,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3164,7 +3237,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="39"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3182,7 +3255,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3240,7 +3313,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3260,7 +3333,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3278,7 +3351,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3298,7 +3371,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="42"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3316,7 +3389,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="42"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3334,7 +3407,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="42"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3352,7 +3425,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="42"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3370,7 +3443,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="42"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3388,7 +3461,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="42"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3406,7 +3479,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="42"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3424,7 +3497,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="42"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3442,7 +3515,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3460,7 +3533,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="42"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3479,11 +3552,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3494,6 +3562,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\0 工作日报\无纸化日报Github\Project-Process-library\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\0 工作日报\无纸化日报Github\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="3"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
     <sheet name="24-25周" sheetId="7" r:id="rId2"/>
     <sheet name="26-27周" sheetId="8" r:id="rId3"/>
     <sheet name="28-29周" sheetId="9" r:id="rId4"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="30-31周（计划）" sheetId="10" r:id="rId5"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
   <si>
     <t>分组</t>
   </si>
@@ -313,19 +314,45 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化小组内部讨论会</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>威海商业银行Demo远程支撑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>河北幸福巡检</t>
+    <t>亿联部署测试环境(外出)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>威海商业银行远程支撑</t>
+    <t>亿联部署测试环境(外出)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建预置前置，为支撑华融湘江机房搬迁做准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建RA，为支撑华融湘江机房搬迁做准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">准备承德银行的POC测试
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">准备承德银行的POC测试
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑华融湘江银行机房搬迁（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福消费金融巡检并指导制作模板（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑搭建亿联银行生产环境</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,13 +1044,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,20 +1080,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1466,13 +1502,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1490,47 +1526,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1623,13 +1659,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1647,47 +1683,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1772,6 +1808,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1780,16 +1826,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,13 +1848,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1836,47 +1872,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1961,13 +1997,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1985,47 +2021,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2102,6 +2138,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2131,15 +2503,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2148,19 +2521,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2172,87 +2545,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="38">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2261,34 +2634,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2297,19 +2670,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2321,131 +2694,139 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="50" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2459,11 +2840,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2471,12 +2847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2485,19 +2861,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2509,87 +2885,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="38">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2598,34 +2974,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2634,19 +3010,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2658,134 +3034,122 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="50" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2794,16 +3158,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2811,7 +3165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2827,32 +3181,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2861,8 +3215,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2917,7 +3271,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2937,7 +3291,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2955,7 +3309,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2973,7 +3327,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2993,7 +3347,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3011,7 +3365,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3029,7 +3383,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3049,7 +3403,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3067,7 +3421,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3105,7 +3459,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3125,7 +3479,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3143,7 +3497,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3161,7 +3515,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3181,7 +3535,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3199,7 +3553,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3217,7 +3571,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3237,7 +3591,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3255,7 +3609,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3313,7 +3667,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3333,7 +3687,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3351,7 +3705,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3371,7 +3725,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3389,7 +3743,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3407,7 +3761,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3425,7 +3779,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3443,7 +3797,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3461,7 +3815,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3479,7 +3833,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3497,7 +3851,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3515,7 +3869,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3533,7 +3887,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3552,6 +3906,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3562,11 +3921,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="4"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
     <sheet name="24-25周" sheetId="7" r:id="rId2"/>
     <sheet name="26-27周" sheetId="8" r:id="rId3"/>
     <sheet name="28-29周" sheetId="9" r:id="rId4"/>
-    <sheet name="30-31周（计划）" sheetId="10" r:id="rId5"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="30-31周" sheetId="10" r:id="rId5"/>
+    <sheet name="32-33周" sheetId="11" r:id="rId6"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="115">
   <si>
     <t>分组</t>
   </si>
@@ -303,10 +304,6 @@
   </si>
   <si>
     <t>亿联的无纸化售前交流（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家信息中心的法律风险评估提供相关文档和资质</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -348,11 +345,87 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>河北幸福消费金融巡检并指导制作模板（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>支撑搭建亿联银行生产环境</t>
+    <t>从长沙回京。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴利东</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑华融湘江银行机房搬迁（外出-长沙）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑华融湘江银行机房搬迁（外出-长沙）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑华融湘江银行机房搬迁（外出-长沙）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑华融湘江银行机房搬迁（外出-长沙）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中石油电子招投标网系统转云问题定位-trustsignpdf（北京本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福消费金融app业务上线支撑无纸化及技能培训（北京本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛海尔消费金融售前交流（外出-青岛）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去青岛海尔消费金融路上（外出-青岛）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去山东城商行联盟（外出-济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟升级无纸化及集成支撑（外出-济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟升级无纸化及集成支撑（外出-济南）--晚上回京</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京现代金融POC测试（北京本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京现代金融POC测试（北京本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京现代金融POC测试（北京本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业助学贷款方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油国际事业售前交流（北京本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家信息中心的法律风险评估提供相关文档和资质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪国家信息中心的法律风险评估</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行实施</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,14 +1120,32 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1070,21 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1502,13 +1578,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1526,47 +1602,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="43">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1659,13 +1735,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1683,47 +1759,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1808,16 +1884,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1826,6 +1892,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,13 +1924,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1872,47 +1948,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="43">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1997,13 +2073,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2021,47 +2097,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2138,6 +2214,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2167,15 +2579,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2184,19 +2597,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2208,87 +2621,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="43">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2297,34 +2710,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2333,19 +2746,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2357,136 +2770,134 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="43">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="38"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2500,6 +2911,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,12 +2923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2521,19 +2937,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2545,87 +2961,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="43">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2634,55 +3050,57 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2694,139 +3112,134 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="43">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="38"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="50" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2840,6 +3253,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2847,12 +3265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2861,19 +3279,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2885,87 +3303,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="43">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+        <v>42955</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+        <v>42956</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+        <v>42957</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+        <v>42958</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+        <v>42959</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2974,34 +3392,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3010,19 +3428,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3034,106 +3452,128 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="43">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+        <v>42961</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+        <v>42962</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+        <v>42963</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+        <v>42964</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+        <v>42965</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+        <v>42966</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="38"/>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="50" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="36"/>
@@ -3165,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3181,32 +3621,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3215,8 +3655,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3271,7 +3711,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3291,7 +3731,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3309,7 +3749,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3767,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3347,7 +3787,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3365,7 +3805,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3383,7 +3823,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3403,7 +3843,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3421,7 +3861,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3899,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3479,7 +3919,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3497,7 +3937,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3515,7 +3955,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3535,7 +3975,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3553,7 +3993,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3571,7 +4011,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3591,7 +4031,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3609,7 +4049,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3667,7 +4107,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3687,7 +4127,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3705,7 +4145,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3725,7 +4165,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3743,7 +4183,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3761,7 +4201,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3779,7 +4219,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3797,7 +4237,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3815,7 +4255,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3833,7 +4273,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3851,7 +4291,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3869,7 +4309,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +4327,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3906,11 +4346,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3921,6 +4356,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="114">
   <si>
     <t>分组</t>
   </si>
@@ -421,11 +421,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>跟踪国家信息中心的法律风险评估</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行实施</t>
+    <t>山东城商行联盟无纸化支撑（外出-山东济南）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1129,13 +1125,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,21 +1156,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1578,13 +1574,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1605,41 +1601,41 @@
       <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="42"/>
@@ -1735,13 +1731,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1762,41 +1758,41 @@
       <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="42"/>
@@ -1884,6 +1880,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1892,16 +1898,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,13 +1920,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1951,41 +1947,41 @@
       <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="42"/>
@@ -2073,13 +2069,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2100,41 +2096,41 @@
       <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="42"/>
@@ -2214,6 +2210,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2243,15 +2575,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2260,19 +2593,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2287,84 +2620,84 @@
       <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="B2" s="41">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="43"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2373,34 +2706,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2409,19 +2742,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2436,125 +2769,810 @@
       <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="43"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="42"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2583,1028 +3601,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>32</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>33</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
@@ -3621,32 +3617,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3655,8 +3651,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3711,7 +3707,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3731,7 +3727,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3749,7 +3745,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3763,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3787,7 +3783,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3805,7 +3801,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3823,7 +3819,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3843,7 +3839,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3861,7 +3857,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3899,7 +3895,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3919,7 +3915,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3937,7 +3933,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3955,7 +3951,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3975,7 +3971,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3993,7 +3989,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4011,7 +4007,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4031,7 +4027,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4049,7 +4045,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4107,7 +4103,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4127,7 +4123,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4145,7 +4141,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4165,7 +4161,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4183,7 +4179,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4201,7 +4197,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4219,7 +4215,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4237,7 +4233,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4255,7 +4251,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4273,7 +4269,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4291,7 +4287,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4309,7 +4305,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4327,7 +4323,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4346,6 +4342,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4356,11 +4357,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="5"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="28-29周" sheetId="9" r:id="rId4"/>
     <sheet name="30-31周" sheetId="10" r:id="rId5"/>
     <sheet name="32-33周" sheetId="11" r:id="rId6"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="34-35周" sheetId="12" r:id="rId7"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="122">
   <si>
     <t>分组</t>
   </si>
@@ -422,6 +423,43 @@
   </si>
   <si>
     <t>山东城商行联盟无纸化支撑（外出-山东济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟无纸化支撑（外出-山东济南）
+陆金所无纸化方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟无纸化支撑（外出-山东济南）
+陆金所无纸化方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟无纸化支撑（外出-山东济南）
+陆金所无纸化方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟无纸化支撑（外出-山东济南）
+陆金所无纸化方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车消费金融无纸化解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车消费金融无纸化解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly schedule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威海商业银行无纸化部署支撑
+（外出-山东威海）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,14 +1163,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1147,15 +1197,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,13 +1615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1598,47 +1639,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="44">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1731,13 +1772,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1755,47 +1796,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1880,16 +1921,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1898,6 +1929,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1920,13 +1961,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1944,47 +1985,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="44">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -2069,13 +2110,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2093,47 +2134,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2210,6 +2251,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2239,15 +2616,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2256,19 +2634,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2280,87 +2658,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="44">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2369,34 +2747,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2405,19 +2783,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2429,128 +2807,813 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2579,12 +3642,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2593,19 +3656,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2617,87 +3680,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="44">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2705,35 +3768,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2742,19 +3805,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2766,87 +3829,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2854,35 +3917,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -2899,6 +3962,11 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2907,11 +3975,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,689 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>32</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>33</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3617,32 +3998,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3651,8 +4032,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3707,7 +4088,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3727,7 +4108,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3745,7 +4126,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3763,7 +4144,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3783,7 +4164,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3801,7 +4182,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3819,7 +4200,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3839,7 +4220,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +4238,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3895,7 +4276,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3915,7 +4296,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3933,7 +4314,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3951,7 +4332,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3971,7 +4352,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3989,7 +4370,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4007,7 +4388,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4027,7 +4408,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4045,7 +4426,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4103,7 +4484,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4123,7 +4504,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4141,7 +4522,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4161,7 +4542,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4179,7 +4560,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4197,7 +4578,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4215,7 +4596,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4233,7 +4614,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4251,7 +4632,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4269,7 +4650,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4287,7 +4668,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4305,7 +4686,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4323,7 +4704,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4342,11 +4723,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4357,6 +4733,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="127">
   <si>
     <t>分组</t>
   </si>
@@ -460,6 +460,33 @@
   <si>
     <t>威海商业银行无纸化部署支撑
 （外出-山东威海）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州银行技术交流完毕回京（外出-河南郑州）
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州银行技术交流
+（外出-河南郑州）
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州银行技术交流
+（外出-河南郑州）
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写山东网银联盟标书
+（菜市口）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结无纸化各种应用场景+局点问题支撑
+（菜市口）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1166,13 +1193,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,21 +1224,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1615,13 +1642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1642,41 +1669,41 @@
       <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="42">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="43"/>
@@ -1772,13 +1799,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1799,41 +1826,41 @@
       <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="43"/>
@@ -1921,6 +1948,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1929,16 +1966,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1961,13 +1988,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1988,41 +2015,41 @@
       <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="42">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="43"/>
@@ -2110,13 +2137,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2137,41 +2164,41 @@
       <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="43"/>
@@ -2251,6 +2278,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2280,15 +2643,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2297,19 +2661,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2324,84 +2688,84 @@
       <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="42">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="43"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2410,34 +2774,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2446,19 +2810,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2473,125 +2837,810 @@
       <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="42">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="43"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2620,12 +3669,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2634,19 +3683,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2661,84 +3710,84 @@
       <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="42">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="43"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2746,35 +3795,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2783,19 +3832,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2810,84 +3859,84 @@
       <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="42">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="43"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2895,35 +3944,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -2960,1028 +4009,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>32</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>33</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
@@ -3998,32 +4025,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="46"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -4032,8 +4059,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4088,7 +4115,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4108,7 +4135,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4126,7 +4153,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4144,7 +4171,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4164,7 +4191,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -4182,7 +4209,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="49"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4200,7 +4227,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4220,7 +4247,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4238,7 +4265,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="49"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4276,7 +4303,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4296,7 +4323,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4314,7 +4341,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="49"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4332,7 +4359,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4352,7 +4379,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4370,7 +4397,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4388,7 +4415,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4408,7 +4435,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4426,7 +4453,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="49"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4484,7 +4511,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4504,7 +4531,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="49"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4522,7 +4549,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4542,7 +4569,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="51"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4560,7 +4587,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="51"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4578,7 +4605,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="51"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4596,7 +4623,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="51"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4614,7 +4641,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="51"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4632,7 +4659,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="51"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4650,7 +4677,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="51"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4668,7 +4695,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="51"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4686,7 +4713,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="51"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4731,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="51"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4723,6 +4750,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4733,11 +4765,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="6"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="30-31周" sheetId="10" r:id="rId5"/>
     <sheet name="32-33周" sheetId="11" r:id="rId6"/>
     <sheet name="34-35周" sheetId="12" r:id="rId7"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="36-37周" sheetId="13" r:id="rId8"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="127">
   <si>
     <t>分组</t>
   </si>
@@ -1066,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,14 +1194,26 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1215,15 +1228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,13 +1646,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1666,47 +1670,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="45">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1799,13 +1803,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1823,47 +1827,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1948,16 +1952,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1966,6 +1960,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1988,13 +1992,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2012,47 +2016,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="45">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -2137,13 +2141,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2161,47 +2165,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2278,6 +2282,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2307,15 +2647,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2324,19 +2665,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2348,87 +2689,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="B2" s="45">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="42"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2437,34 +2778,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2473,19 +2814,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2497,128 +2838,813 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="42"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2647,12 +3673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2661,19 +3687,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2685,87 +3711,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="B2" s="45">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="42"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2773,35 +3799,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2810,19 +3836,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2834,87 +3860,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="42"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2922,35 +3948,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -2987,12 +4013,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3001,19 +4027,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3025,87 +4051,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="B2" s="45">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="42"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3113,58 +4139,56 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3176,124 +4200,104 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="42"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
@@ -3309,6 +4313,11 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3317,11 +4326,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3329,687 +4333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>32</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
-        <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>33</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="42">
-        <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="42">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -4025,32 +4349,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="51"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -4059,8 +4383,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4115,7 +4439,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4135,7 +4459,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4153,7 +4477,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4171,7 +4495,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4191,7 +4515,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -4209,7 +4533,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +4551,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4247,7 +4571,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4265,7 +4589,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4303,7 +4627,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4323,7 +4647,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4341,7 +4665,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4359,7 +4683,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4379,7 +4703,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +4721,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4415,7 +4739,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4435,7 +4759,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4453,7 +4777,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4511,7 +4835,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4531,7 +4855,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4549,7 +4873,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="52" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4569,7 +4893,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4587,7 +4911,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4605,7 +4929,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4623,7 +4947,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4641,7 +4965,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4659,7 +4983,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4677,7 +5001,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4695,7 +5019,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4713,7 +5037,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4731,7 +5055,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4750,11 +5074,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4765,6 +5084,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -20,14 +20,15 @@
     <sheet name="32-33周" sheetId="11" r:id="rId6"/>
     <sheet name="34-35周" sheetId="12" r:id="rId7"/>
     <sheet name="36-37周" sheetId="13" r:id="rId8"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId9"/>
+    <sheet name="38-39周" sheetId="14" r:id="rId9"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="137">
   <si>
     <t>分组</t>
   </si>
@@ -488,6 +489,46 @@
   <si>
     <t>总结无纸化各种应用场景+局点问题支撑
 （菜市口）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化小组内部交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司准备宜信无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜信无纸化交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国国家机关公积金管理中性能交流无纸化（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿云网络无纸化实施（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司准备第二天国管中心的无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙华融湘江搬迁上线支撑（外出-湖南长沙）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>交接国管公积金的RA改造</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福新业务支撑（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿云新需求跟踪（亦庄）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,13 +1238,31 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,21 +1272,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1646,13 +1690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1670,47 +1714,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1803,13 +1847,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1827,47 +1871,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1952,6 +1996,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1960,19 +2014,772 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="53"/>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="A4" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="A16" s="48"/>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1">
+      <c r="A17" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1">
+      <c r="A25" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1">
+      <c r="A26" s="48"/>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1">
+      <c r="A27" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1">
+      <c r="A28" s="50"/>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1">
+      <c r="A29" s="50"/>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1">
+      <c r="A30" s="50"/>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1">
+      <c r="A34" s="50"/>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1">
+      <c r="A35" s="50"/>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" customHeight="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" customHeight="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1992,13 +2799,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2016,47 +2823,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -2141,13 +2948,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2165,47 +2972,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2282,6 +3089,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2311,15 +3454,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2328,19 +3472,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2352,87 +3496,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="44">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2441,34 +3585,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2477,19 +3621,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2501,128 +3645,813 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2651,12 +4480,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2665,19 +4494,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2689,87 +4518,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="44">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2777,35 +4606,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2814,19 +4643,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2838,87 +4667,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2926,35 +4755,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -2991,12 +4820,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3005,19 +4834,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3029,87 +4858,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="44">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3117,58 +4946,56 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3180,123 +5007,123 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -3333,12 +5160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3347,19 +5174,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3371,87 +5198,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="44">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3459,35 +5286,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
+      <c r="B4" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3496,19 +5323,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3520,767 +5347,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="45">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
-        <f>SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="45">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4331,767 +5478,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-    </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-    </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="7"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
   <si>
     <t>分组</t>
   </si>
@@ -504,31 +504,49 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>亿云网络无纸化实施（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司准备第二天国管中心的无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙华融湘江搬迁上线支撑（外出-湖南长沙）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海易招标支撑无纸化
+（外出-上海）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟无纸化支撑（外出-山东济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>中国国家机关公积金管理中性能交流无纸化（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>亿云网络无纸化实施（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司准备第二天国管中心的无纸化交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>长沙华融湘江搬迁上线支撑（外出-湖南长沙）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>交接国管公积金的RA改造</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北幸福新业务支撑（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿云新需求跟踪（亦庄）</t>
+    <t>菜市口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑无纸化一体机
+（外出-亦庄）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口支撑上海易招标评标方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口（填写报销）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1241,14 +1259,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1263,15 +1290,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1690,13 +1708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1717,41 +1735,41 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="46">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
@@ -1847,13 +1865,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1874,41 +1892,41 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
@@ -1996,16 +2014,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2014,6 +2022,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2036,32 +2054,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="52" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2070,8 +2088,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2126,7 +2144,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2146,7 +2164,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2182,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2182,7 +2200,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2202,7 +2220,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2220,7 +2238,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2256,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2258,7 +2276,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +2294,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +2332,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2334,7 +2352,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2352,7 +2370,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2370,7 +2388,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2390,7 +2408,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2408,7 +2426,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2426,7 +2444,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="52" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2446,7 +2464,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2464,7 +2482,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2522,7 +2540,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="52" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2542,7 +2560,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2560,7 +2578,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2580,7 +2598,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2598,7 +2616,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2616,7 +2634,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2634,7 +2652,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2652,7 +2670,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2670,7 +2688,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2688,7 +2706,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2724,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2724,7 +2742,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2760,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2761,11 +2779,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2776,6 +2789,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2799,13 +2817,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2826,41 +2844,41 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="46">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
@@ -2948,13 +2966,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2975,41 +2993,41 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
@@ -3089,6 +3107,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="46">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3118,15 +3472,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3135,19 +3490,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3162,84 +3517,84 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3248,34 +3603,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3284,19 +3639,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3311,125 +3666,810 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="46">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="46">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3458,12 +4498,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3472,19 +4512,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3499,84 +4539,84 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="46">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3584,35 +4624,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3621,19 +4661,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3648,84 +4688,84 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3733,35 +4773,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -3798,12 +4838,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3812,19 +4852,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3839,84 +4879,84 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="46">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3924,58 +4964,56 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="B4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3990,125 +5028,133 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="36"/>
@@ -4140,12 +5186,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4154,19 +5200,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4181,84 +5227,84 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="46">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="B3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4266,35 +5312,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4303,19 +5349,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4330,84 +5376,84 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4415,38 +5461,42 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
@@ -4478,1004 +5528,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>38</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>39</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="8"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -721,7 +721,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDD9C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1297,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -4502,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4842,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4961,37 +4973,37 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="56" t="s">
         <v>113</v>
       </c>
       <c r="L4" s="28"/>
@@ -5128,31 +5140,31 @@
       <c r="F9" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5190,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="7"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="34-35周" sheetId="12" r:id="rId7"/>
     <sheet name="36-37周" sheetId="13" r:id="rId8"/>
     <sheet name="38-39周" sheetId="14" r:id="rId9"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="40-41周" sheetId="15" r:id="rId10"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="145">
   <si>
     <t>分组</t>
   </si>
@@ -547,6 +548,22 @@
   </si>
   <si>
     <t>菜市口（填写报销）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一假期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口支撑上海易招标评标方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口支撑上海易招标无纸化支撑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +575,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +737,48 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1132,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,13 +1324,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,25 +1357,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1720,13 +1821,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1747,41 +1848,41 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
@@ -1877,13 +1978,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1904,41 +2005,41 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
@@ -2026,6 +2127,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2034,16 +2145,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,6 +2152,346 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>40</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,10,2)</f>
+        <v>43010</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>43011</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>43012</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43013</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43014</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43015</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43016</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>41</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>43017</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43018</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43019</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43020</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43021</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43022</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43023</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="70"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2066,32 +2507,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2100,8 +2541,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2156,7 +2597,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2176,7 +2617,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2194,7 +2635,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2212,7 +2653,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2232,7 +2673,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2250,7 +2691,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2268,7 +2709,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2288,7 +2729,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2747,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2344,7 +2785,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2364,7 +2805,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="50"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2382,7 +2823,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2841,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2420,7 +2861,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="50"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2879,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2897,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2476,7 +2917,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="50"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2494,7 +2935,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="51"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2552,7 +2993,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2572,7 +3013,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="51"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2590,7 +3031,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2610,7 +3051,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +3069,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2646,7 +3087,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2664,7 +3105,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2682,7 +3123,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2700,7 +3141,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2718,7 +3159,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="53"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +3177,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2754,7 +3195,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2772,7 +3213,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2791,6 +3232,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2801,11 +3247,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,13 +3270,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2856,41 +3297,41 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
@@ -2978,13 +3419,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3005,41 +3446,41 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
@@ -3119,6 +3560,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3148,15 +3925,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3165,19 +3943,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3192,84 +3970,84 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="44">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3278,34 +4056,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3314,19 +4092,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3341,125 +4119,810 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3488,12 +4951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3502,19 +4965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3529,84 +4992,84 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="44">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3614,35 +5077,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3651,19 +5114,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3678,84 +5141,84 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3763,35 +5226,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -3828,320 +5291,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="59"/>
+    <col min="2" max="15" width="26.625" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
+      <c r="A1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="57">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="61">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="66" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="57">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="61">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="61"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="68" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4170,7 +5641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -4184,19 +5655,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4211,84 +5682,84 @@
       <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="44">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="45"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4296,35 +5767,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4333,19 +5804,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4360,84 +5831,84 @@
       <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4445,38 +5916,42 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
@@ -4508,1036 +5983,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="46">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
-        <f>SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="46">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>38</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
-        <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
-        <f>SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>39</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="46">
-        <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="9"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="36-37周" sheetId="13" r:id="rId8"/>
     <sheet name="38-39周" sheetId="14" r:id="rId9"/>
     <sheet name="40-41周" sheetId="15" r:id="rId10"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId11"/>
+    <sheet name="42-43周" sheetId="16" r:id="rId11"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="147">
   <si>
     <t>分组</t>
   </si>
@@ -559,11 +560,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>菜市口支撑上海易招标评标方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜市口支撑上海易招标无纸化支撑</t>
+    <t>山东城商行联盟无纸化支撑（外出 济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口支持稠州银行POC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑稠州银行POC测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行需求提交</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +584,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +788,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1191,7 +1242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,17 +1372,68 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1348,62 +1450,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1821,13 +1908,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1845,47 +1932,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="57">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1978,13 +2065,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2002,47 +2089,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="57">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2127,16 +2214,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2145,6 +2222,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2155,314 +2242,638 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="73"/>
+    <col min="2" max="15" width="26.625" style="73" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="71">
         <f>WEEKNUM(B2)</f>
         <v>40</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="75">
         <f>DATE(2017,10,2)</f>
         <v>43010</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75">
         <f>SUM(B2+1)</f>
         <v>43011</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75">
         <f>SUM(D2+1)</f>
         <v>43012</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43013</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43014</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="75"/>
+      <c r="L2" s="75">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43015</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43016</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="C3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="79" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="71">
         <f>WEEKNUM(B7)</f>
         <v>41</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="75">
         <f>B2+7</f>
         <v>43017</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43018</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43019</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43020</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43021</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="75"/>
+      <c r="L7" s="75">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43022</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43023</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="81" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="E9" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="L9" s="70"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="73"/>
+    <col min="2" max="15" width="26.625" style="73" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="71">
+        <f>WEEKNUM(B2)</f>
+        <v>42</v>
+      </c>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="75">
+        <f>DATE(2017,10,16)</f>
+        <v>43024</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75">
+        <f>SUM(B2+1)</f>
+        <v>43025</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75">
+        <f>SUM(D2+1)</f>
+        <v>43026</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43027</v>
+      </c>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43028</v>
+      </c>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43029</v>
+      </c>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43030</v>
+      </c>
+      <c r="O2" s="75"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="79" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="71">
+        <f>WEEKNUM(B7)</f>
+        <v>43</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="75">
+        <f>B2+7</f>
+        <v>43031</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43032</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43033</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43034</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43035</v>
+      </c>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43036</v>
+      </c>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43037</v>
+      </c>
+      <c r="O7" s="75"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="74"/>
+      <c r="B8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="81" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2491,7 +2902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2507,32 +2918,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="52" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="62"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2952,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2597,7 +3008,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="66" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2617,7 +3028,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2635,7 +3046,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2653,7 +3064,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="66" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2673,7 +3084,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2691,7 +3102,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2709,7 +3120,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="66" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2729,7 +3140,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2747,7 +3158,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +3196,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="66" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2805,7 +3216,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2823,7 +3234,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2841,7 +3252,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="64" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2861,7 +3272,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2879,7 +3290,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2897,7 +3308,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="66" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2917,7 +3328,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2935,7 +3346,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2993,7 +3404,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="66" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3013,7 +3424,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3031,7 +3442,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="67" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3051,7 +3462,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3069,7 +3480,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3087,7 +3498,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3105,7 +3516,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3123,7 +3534,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3141,7 +3552,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3159,7 +3570,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3177,7 +3588,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3195,7 +3606,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3213,7 +3624,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3232,11 +3643,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3247,6 +3653,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,13 +3681,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3294,47 +3705,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="57">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -3419,13 +3830,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3443,47 +3854,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="57">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -3560,6 +3971,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="57">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3589,15 +4336,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3606,19 +4354,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3630,87 +4378,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="57">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3719,34 +4467,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3755,19 +4503,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3779,128 +4527,813 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="57">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="57">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="57">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3929,12 +5362,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3943,19 +5376,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3967,87 +5400,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="57">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4055,35 +5488,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4092,19 +5525,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4116,87 +5549,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="57">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4204,35 +5637,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -4269,320 +5702,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="46"/>
+    <col min="2" max="15" width="26.625" style="46" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
+      <c r="A1" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="44">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="58">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="51" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="44">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="58">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4611,7 +6052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -4625,19 +6066,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4649,87 +6090,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="57">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4737,35 +6178,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4774,19 +6215,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4798,87 +6239,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="57">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4886,38 +6327,42 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
@@ -4949,1038 +6394,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="59"/>
-    <col min="2" max="15" width="26.625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="59"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="57">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="61">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61">
-        <f>SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="61"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="66" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="57">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="61">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="61"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="68" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>38</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f>SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>39</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="10"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="38-39周" sheetId="14" r:id="rId9"/>
     <sheet name="40-41周" sheetId="15" r:id="rId10"/>
     <sheet name="42-43周" sheetId="16" r:id="rId11"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="44-45周" sheetId="17" r:id="rId12"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="150">
   <si>
     <t>分组</t>
   </si>
@@ -568,11 +569,37 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>支撑稠州银行POC测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>山东城商行需求提交</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>坐高铁赶往山东青岛
+(外出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛银行柜面无纸化交流
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>做高铁赶往山东济南
+（外出 济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五晚上支撑到9点多，没有高铁，周六上午回京。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1408,15 +1435,48 @@
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1426,6 +1486,30 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="31" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1434,63 +1518,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1908,13 +1935,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1932,47 +1959,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="66">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="57"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2065,13 +2092,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2089,47 +2116,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="66">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="57"/>
+      <c r="O7" s="66"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2214,6 +2241,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2222,16 +2259,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2242,316 +2269,660 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="73"/>
-    <col min="2" max="15" width="26.625" style="73" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="73"/>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="56">
         <f>WEEKNUM(B2)</f>
         <v>40</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="72">
         <f>DATE(2017,10,2)</f>
         <v>43010</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>43011</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
         <v>43012</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43013</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43014</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43015</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43016</v>
       </c>
-      <c r="O2" s="75"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="74"/>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="79" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="C3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="56">
         <f>WEEKNUM(B7)</f>
         <v>41</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>43017</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43018</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43019</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43020</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43021</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43022</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43023</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="74"/>
-      <c r="B8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="81" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="B8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="82"/>
+      <c r="B12" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="56">
+        <f>WEEKNUM(B2)</f>
+        <v>42</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="72">
+        <f>DATE(2017,10,16)</f>
+        <v>43024</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
+        <f>SUM(B2+1)</f>
+        <v>43025</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
+        <f>SUM(D2+1)</f>
+        <v>43026</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43027</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43028</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43029</v>
+      </c>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43030</v>
+      </c>
+      <c r="O2" s="72"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="56">
+        <f>WEEKNUM(B7)</f>
+        <v>43</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="72">
+        <f>B2+7</f>
+        <v>43031</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43032</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43033</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43034</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43035</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43036</v>
+      </c>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43037</v>
+      </c>
+      <c r="O7" s="72"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="74"/>
+      <c r="B8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2580,300 +2951,300 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="73"/>
-    <col min="2" max="15" width="26.625" style="73" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="73"/>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="56">
         <f>WEEKNUM(B2)</f>
-        <v>42</v>
-      </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
+        <v>44</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="75">
-        <f>DATE(2017,10,16)</f>
-        <v>43024</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="B2" s="72">
+        <f>DATE(2017,10,30)</f>
+        <v>43038</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
-        <v>43025</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75">
+        <v>43039</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
-        <v>43026</v>
-      </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75">
+        <v>43040</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>43027</v>
-      </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+        <v>43041</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43028</v>
-      </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75">
+        <v>43042</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43029</v>
-      </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75">
+        <v>43043</v>
+      </c>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43030</v>
-      </c>
-      <c r="O2" s="75"/>
+        <v>43044</v>
+      </c>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="74"/>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="79" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="C3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
+      <c r="B4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="56">
         <f>WEEKNUM(B7)</f>
-        <v>43</v>
-      </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
+        <v>45</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="72">
         <f>B2+7</f>
-        <v>43031</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75">
+        <v>43045</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43032</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+        <v>43046</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43033</v>
-      </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75">
+        <v>43047</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43034</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75">
+        <v>43048</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43035</v>
-      </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75">
+        <v>43049</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43036</v>
-      </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75">
+        <v>43050</v>
+      </c>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43037</v>
-      </c>
-      <c r="O7" s="75"/>
+        <v>43051</v>
+      </c>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="74"/>
-      <c r="B8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="81" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="B8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="82"/>
+      <c r="B12" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2902,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2918,32 +3289,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="61" t="s">
+      <c r="J1" s="82"/>
+      <c r="K1" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="62"/>
+      <c r="L1" s="81"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2952,8 +3323,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3379,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="77" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3028,7 +3399,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3046,7 +3417,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="65"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3064,7 +3435,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3084,7 +3455,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3102,7 +3473,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3120,7 +3491,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3140,7 +3511,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="64"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3158,7 +3529,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="65"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3196,7 +3567,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3216,7 +3587,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="64"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3234,7 +3605,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="65"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3252,7 +3623,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="75" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3272,7 +3643,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="64"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3290,7 +3661,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3308,7 +3679,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="77" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3328,7 +3699,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="64"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3346,7 +3717,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3404,7 +3775,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="77" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3424,7 +3795,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="65"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3442,7 +3813,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="78" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3462,7 +3833,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="67"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3480,7 +3851,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="67"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3498,7 +3869,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="67"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3516,7 +3887,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="67"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3534,7 +3905,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="67"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3552,7 +3923,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="67"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3570,7 +3941,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="67"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3588,7 +3959,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="67"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3606,7 +3977,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="67"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3624,7 +3995,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="67"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3643,6 +4014,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3653,11 +4029,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3681,13 +4052,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3705,47 +4076,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="66">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="57"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -3830,13 +4201,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3854,47 +4225,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="66">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="57"/>
+      <c r="O7" s="66"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -3971,6 +4342,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="66">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="66"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="66">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="66"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -4000,15 +4707,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4017,19 +4725,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4041,87 +4749,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="66">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4130,34 +4838,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4166,19 +4874,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4190,128 +4898,813 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="66">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="66"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="66">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="66"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="66">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="66"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="66">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="66"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="66">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="66"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4340,12 +5733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4354,19 +5747,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4378,87 +5771,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="66">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4466,35 +5859,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4503,19 +5896,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4527,87 +5920,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="66">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="66"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4615,35 +6008,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -4680,320 +6073,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="46"/>
+    <col min="2" max="15" width="26.625" style="46" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="29" t="s">
+      <c r="A1" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="44">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="69">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="51" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="44">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="69">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5022,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -5036,19 +6437,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5060,87 +6461,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="66">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66">
         <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5148,35 +6549,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5185,19 +6586,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5209,87 +6610,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="66">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="66"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5297,38 +6698,42 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
@@ -5360,1038 +6765,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="57"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="57">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="57"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="46"/>
-    <col min="2" max="15" width="26.625" style="46" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="44">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="58">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58">
-        <f>SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="58"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="51" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="44">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="58">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="58"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>38</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
-        <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
-        <f>SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="57"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>39</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="57">
-        <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="57"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="152">
   <si>
     <t>分组</t>
   </si>
@@ -600,6 +600,16 @@
   </si>
   <si>
     <t>周五晚上支撑到9点多，没有高铁，周六上午回京。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟无纸化支撑
+无纸化前置部署和批量导入（外出 济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东城商行联盟无纸化支撑
+济宁银行上线（外出 济南）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1468,15 +1478,15 @@
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1495,6 +1505,15 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1508,15 +1527,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1935,13 +1945,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1962,41 +1972,41 @@
       <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="68">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="66"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="67"/>
@@ -2092,13 +2102,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2119,41 +2129,41 @@
       <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="68">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="66"/>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="67"/>
@@ -2241,16 +2251,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2259,6 +2259,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,6 +2581,350 @@
       </c>
       <c r="K9" s="60" t="s">
         <v>144</v>
+      </c>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="56">
+        <f>WEEKNUM(B2)</f>
+        <v>42</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="72">
+        <f>DATE(2017,10,16)</f>
+        <v>43024</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
+        <f>SUM(B2+1)</f>
+        <v>43025</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
+        <f>SUM(D2+1)</f>
+        <v>43026</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43027</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43028</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43029</v>
+      </c>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43030</v>
+      </c>
+      <c r="O2" s="72"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="56">
+        <f>WEEKNUM(B7)</f>
+        <v>43</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="72">
+        <f>B2+7</f>
+        <v>43031</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43032</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43033</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43034</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43035</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43036</v>
+      </c>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43037</v>
+      </c>
+      <c r="O7" s="72"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="74"/>
+      <c r="B8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>143</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="60"/>
@@ -2607,12 +2961,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2635,7 +2989,7 @@
       </c>
       <c r="G1" s="56">
         <f>WEEKNUM(B2)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
@@ -2651,38 +3005,38 @@
         <v>59</v>
       </c>
       <c r="B2" s="72">
-        <f>DATE(2017,10,16)</f>
-        <v>43024</v>
+        <f>DATE(2017,10,30)</f>
+        <v>43038</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72">
         <f>SUM(B2+1)</f>
-        <v>43025</v>
+        <v>43039</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72">
         <f>SUM(D2+1)</f>
-        <v>43026</v>
+        <v>43040</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>43027</v>
+        <v>43041</v>
       </c>
       <c r="I2" s="72"/>
       <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43028</v>
+        <v>43042</v>
       </c>
       <c r="K2" s="72"/>
       <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43029</v>
+        <v>43043</v>
       </c>
       <c r="M2" s="72"/>
       <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43030</v>
+        <v>43044</v>
       </c>
       <c r="O2" s="72"/>
     </row>
@@ -2735,20 +3089,20 @@
       <c r="A4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="60" t="s">
+      <c r="B4" s="60" t="s">
         <v>143</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>143</v>
@@ -2759,15 +3113,13 @@
       <c r="I4" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>149</v>
-      </c>
+      <c r="J4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60"/>
@@ -2786,7 +3138,7 @@
       </c>
       <c r="G6" s="56">
         <f>WEEKNUM(B7)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
@@ -2803,37 +3155,37 @@
       </c>
       <c r="B7" s="72">
         <f>B2+7</f>
-        <v>43031</v>
+        <v>43045</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43032</v>
+        <v>43046</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43033</v>
+        <v>43047</v>
       </c>
       <c r="G7" s="72"/>
       <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43034</v>
+        <v>43048</v>
       </c>
       <c r="I7" s="72"/>
       <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43035</v>
+        <v>43049</v>
       </c>
       <c r="K7" s="72"/>
       <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43036</v>
+        <v>43050</v>
       </c>
       <c r="M7" s="72"/>
       <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43037</v>
+        <v>43051</v>
       </c>
       <c r="O7" s="72"/>
     </row>
@@ -2951,328 +3303,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="58"/>
-    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="56">
-        <f>WEEKNUM(B2)</f>
-        <v>44</v>
-      </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="72">
-        <f>DATE(2017,10,30)</f>
-        <v>43038</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72">
-        <f>SUM(B2+1)</f>
-        <v>43039</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72">
-        <f>SUM(D2+1)</f>
-        <v>43040</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>43041</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43042</v>
-      </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43043</v>
-      </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43044</v>
-      </c>
-      <c r="O2" s="72"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="56">
-        <f>WEEKNUM(B7)</f>
-        <v>45</v>
-      </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="72">
-        <f>B2+7</f>
-        <v>43045</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43046</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43047</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43048</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43049</v>
-      </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43050</v>
-      </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43051</v>
-      </c>
-      <c r="O7" s="72"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
@@ -3289,32 +3319,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="80" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="81"/>
+      <c r="L1" s="76"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3323,8 +3353,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3379,7 +3409,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="80" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3399,7 +3429,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="75"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3417,7 +3447,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="76"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3435,7 +3465,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="80" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3455,7 +3485,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="75"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3473,7 +3503,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="76"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +3521,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="80" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3511,7 +3541,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="75"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3529,7 +3559,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="76"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3567,7 +3597,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="80" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3587,7 +3617,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="75"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3605,7 +3635,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3623,7 +3653,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="78" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3643,7 +3673,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="75"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3661,7 +3691,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3679,7 +3709,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="80" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3699,7 +3729,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="75"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3717,7 +3747,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="76"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3775,7 +3805,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3795,7 +3825,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="76"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3813,7 +3843,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="81" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3833,7 +3863,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="78"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3851,7 +3881,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="78"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3869,7 +3899,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="78"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3887,7 +3917,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="78"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3905,7 +3935,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="78"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3923,7 +3953,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="78"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3941,7 +3971,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="78"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3959,7 +3989,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="78"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3977,7 +4007,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="78"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3995,7 +4025,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="78"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4014,11 +4044,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4029,6 +4054,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4052,13 +4082,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4079,41 +4109,41 @@
       <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="68">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="66"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="67"/>
@@ -4201,13 +4231,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4228,41 +4258,41 @@
       <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="68">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="66"/>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="67"/>
@@ -4342,6 +4372,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="68">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="68"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="68">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="68"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -4371,15 +4737,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4388,19 +4755,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4415,84 +4782,84 @@
       <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
+      <c r="B2" s="68">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="66"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="67"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4501,34 +4868,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4537,19 +4904,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4564,125 +4931,810 @@
       <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="68">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="66"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="67"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="68">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="68"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="68">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="68"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="68">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="68"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="68">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="68"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4711,12 +5763,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4725,19 +5777,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="A1" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4752,84 +5804,84 @@
       <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
+      <c r="B2" s="68">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="66"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="67"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4837,35 +5889,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4874,19 +5926,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4901,84 +5953,84 @@
       <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="68">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="66"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="67"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4986,35 +6038,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -5051,320 +6103,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="46"/>
+    <col min="2" max="15" width="26.625" style="46" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="29" t="s">
+      <c r="A1" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="44">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
+      <c r="B2" s="69">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="66"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="51" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="44">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="69">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="66"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5393,7 +6453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -5407,19 +6467,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="A1" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5434,84 +6494,84 @@
       <c r="A2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
+      <c r="B2" s="68">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68">
         <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="66"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="67"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5519,35 +6579,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5556,19 +6616,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5583,84 +6643,84 @@
       <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="68">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="66"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="67"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5668,38 +6728,42 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
@@ -5731,1038 +6795,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="66">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="66"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="66">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="66"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="46"/>
-    <col min="2" max="15" width="26.625" style="46" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="44">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="69">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
-        <f>SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="69"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="51" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="44">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="69">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="69"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>38</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="66">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66">
-        <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66">
-        <f>SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="66"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>39</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="66">
-        <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="66"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="172">
   <si>
     <t>分组</t>
   </si>
@@ -672,19 +672,85 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>远程支撑山盟无纸化场景证书测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>公司远程支撑易招标无纸化上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>项目管理系统中提山盟的相关需求</t>
+    <t>调休</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晋城银行无纸化&amp;云证通</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务交流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（外出 太原）</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晋城银行无纸化&amp;云证通</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术交流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（外出 太原）</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队总后勤部OA项目POC测试
+（本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州清研捷运物流无纸化交流
+（本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加欧阳CA搭建培训+去太原路上（外出 太原）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>暂未定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手头实施项目梳理&amp;扫尾</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1556,15 +1622,15 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,6 +1649,15 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1596,15 +1671,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2023,13 +2089,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2050,41 +2116,41 @@
       <c r="A2" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="67"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="68"/>
@@ -2180,13 +2246,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2207,41 +2273,41 @@
       <c r="A7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="67"/>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="68"/>
@@ -2329,16 +2395,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2347,6 +2403,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2659,6 +2725,350 @@
       </c>
       <c r="K9" s="60" t="s">
         <v>144</v>
+      </c>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="56">
+        <f>WEEKNUM(B2)</f>
+        <v>42</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="73">
+        <f>DATE(2017,10,16)</f>
+        <v>43024</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73">
+        <f>SUM(B2+1)</f>
+        <v>43025</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73">
+        <f>SUM(D2+1)</f>
+        <v>43026</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43027</v>
+      </c>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43028</v>
+      </c>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43029</v>
+      </c>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43030</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="56">
+        <f>WEEKNUM(B7)</f>
+        <v>43</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="73">
+        <f>B2+7</f>
+        <v>43031</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43032</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43033</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43034</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43035</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43036</v>
+      </c>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43037</v>
+      </c>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="75"/>
+      <c r="B8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>143</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="60"/>
@@ -2695,12 +3105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2723,7 +3133,7 @@
       </c>
       <c r="G1" s="56">
         <f>WEEKNUM(B2)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
@@ -2739,38 +3149,38 @@
         <v>59</v>
       </c>
       <c r="B2" s="73">
-        <f>DATE(2017,10,16)</f>
-        <v>43024</v>
+        <f>DATE(2017,10,30)</f>
+        <v>43038</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73">
         <f>SUM(B2+1)</f>
-        <v>43025</v>
+        <v>43039</v>
       </c>
       <c r="E2" s="73"/>
       <c r="F2" s="73">
         <f>SUM(D2+1)</f>
-        <v>43026</v>
+        <v>43040</v>
       </c>
       <c r="G2" s="73"/>
       <c r="H2" s="73">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>43027</v>
+        <v>43041</v>
       </c>
       <c r="I2" s="73"/>
       <c r="J2" s="73">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43028</v>
+        <v>43042</v>
       </c>
       <c r="K2" s="73"/>
       <c r="L2" s="73">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43029</v>
+        <v>43043</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43030</v>
+        <v>43044</v>
       </c>
       <c r="O2" s="73"/>
     </row>
@@ -2823,20 +3233,20 @@
       <c r="A4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="60" t="s">
+      <c r="B4" s="60" t="s">
         <v>143</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>143</v>
@@ -2847,15 +3257,13 @@
       <c r="I4" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>149</v>
-      </c>
+      <c r="J4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60"/>
@@ -2874,7 +3282,7 @@
       </c>
       <c r="G6" s="56">
         <f>WEEKNUM(B7)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
@@ -2891,37 +3299,37 @@
       </c>
       <c r="B7" s="73">
         <f>B2+7</f>
-        <v>43031</v>
+        <v>43045</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43032</v>
+        <v>43046</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="73">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43033</v>
+        <v>43047</v>
       </c>
       <c r="G7" s="73"/>
       <c r="H7" s="73">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43034</v>
+        <v>43048</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43035</v>
+        <v>43049</v>
       </c>
       <c r="K7" s="73"/>
       <c r="L7" s="73">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43036</v>
+        <v>43050</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43037</v>
+        <v>43051</v>
       </c>
       <c r="O7" s="73"/>
     </row>
@@ -2974,35 +3382,35 @@
       <c r="A9" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>143</v>
+      <c r="B9" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>155</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="60"/>
@@ -3039,12 +3447,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3067,7 +3475,7 @@
       </c>
       <c r="G1" s="56">
         <f>WEEKNUM(B2)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
@@ -3083,83 +3491,83 @@
         <v>59</v>
       </c>
       <c r="B2" s="73">
-        <f>DATE(2017,10,30)</f>
-        <v>43038</v>
+        <f>DATE(2017,11,13)</f>
+        <v>43052</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73">
         <f>SUM(B2+1)</f>
-        <v>43039</v>
+        <v>43053</v>
       </c>
       <c r="E2" s="73"/>
       <c r="F2" s="73">
         <f>SUM(D2+1)</f>
-        <v>43040</v>
+        <v>43054</v>
       </c>
       <c r="G2" s="73"/>
       <c r="H2" s="73">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>43041</v>
+        <v>43055</v>
       </c>
       <c r="I2" s="73"/>
       <c r="J2" s="73">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43042</v>
+        <v>43056</v>
       </c>
       <c r="K2" s="73"/>
       <c r="L2" s="73">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43043</v>
+        <v>43057</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43044</v>
+        <v>43058</v>
       </c>
       <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="75"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59" t="s">
+      <c r="C3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3167,35 +3575,35 @@
       <c r="A4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>143</v>
+      <c r="B4" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>143</v>
+        <v>165</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="60"/>
@@ -3216,7 +3624,7 @@
       </c>
       <c r="G6" s="56">
         <f>WEEKNUM(B7)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
@@ -3233,82 +3641,82 @@
       </c>
       <c r="B7" s="73">
         <f>B2+7</f>
-        <v>43045</v>
+        <v>43059</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43046</v>
+        <v>43060</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="73">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43047</v>
+        <v>43061</v>
       </c>
       <c r="G7" s="73"/>
       <c r="H7" s="73">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43048</v>
+        <v>43062</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43049</v>
+        <v>43063</v>
       </c>
       <c r="K7" s="73"/>
       <c r="L7" s="73">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43050</v>
+        <v>43064</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43051</v>
+        <v>43065</v>
       </c>
       <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="75"/>
-      <c r="B8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="59" t="s">
+      <c r="B8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3317,34 +3725,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="60"/>
@@ -3356,11 +3764,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3374,328 +3777,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="58"/>
-    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="56">
-        <f>WEEKNUM(B2)</f>
-        <v>46</v>
-      </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="73">
-        <f>DATE(2017,11,13)</f>
-        <v>43052</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73">
-        <f>SUM(B2+1)</f>
-        <v>43053</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73">
-        <f>SUM(D2+1)</f>
-        <v>43054</v>
-      </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>43055</v>
-      </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43056</v>
-      </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43057</v>
-      </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43058</v>
-      </c>
-      <c r="O2" s="73"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="56">
-        <f>WEEKNUM(B7)</f>
-        <v>47</v>
-      </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="73">
-        <f>B2+7</f>
-        <v>43059</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43060</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43061</v>
-      </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43062</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43063</v>
-      </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43064</v>
-      </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43065</v>
-      </c>
-      <c r="O7" s="73"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3732,32 +3818,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="81" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="82"/>
+      <c r="L1" s="77"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3766,8 +3852,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3822,7 +3908,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3842,7 +3928,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="76"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3860,7 +3946,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3878,7 +3964,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="81" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3898,7 +3984,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3916,7 +4002,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="77"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3934,7 +4020,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="81" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3954,7 +4040,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="76"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3972,7 +4058,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="77"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4010,7 +4096,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="81" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4030,7 +4116,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="76"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4048,7 +4134,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="77"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4066,7 +4152,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="79" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4086,7 +4172,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4104,7 +4190,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4122,7 +4208,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4142,7 +4228,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="76"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4160,7 +4246,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="77"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4218,7 +4304,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="81" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4238,7 +4324,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4256,7 +4342,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="82" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4276,7 +4362,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="79"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4294,7 +4380,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4312,7 +4398,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="79"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4330,7 +4416,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4348,7 +4434,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="79"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4366,7 +4452,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4384,7 +4470,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="79"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4402,7 +4488,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="79"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4420,7 +4506,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="79"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4438,7 +4524,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="79"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4457,11 +4543,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4472,6 +4553,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4495,13 +4581,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4522,41 +4608,41 @@
       <c r="A2" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="69">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="67"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="68"/>
@@ -4644,13 +4730,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4671,41 +4757,41 @@
       <c r="A7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="67"/>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="68"/>
@@ -4785,6 +4871,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="69">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="69">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -4814,15 +5236,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4831,19 +5254,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4858,84 +5281,84 @@
       <c r="A2" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="67">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
+      <c r="B2" s="69">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="67"/>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
+        <f>SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="68"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4944,34 +5367,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4980,19 +5403,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5007,125 +5430,810 @@
       <c r="A7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="67"/>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="68"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="69">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
+        <f>SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="69">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="69">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
+        <f>SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="69">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5154,12 +6262,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5168,19 +6276,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5195,84 +6303,84 @@
       <c r="A2" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="67">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
+      <c r="B2" s="69">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
         <f>SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="67"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="68"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5280,35 +6388,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>83</v>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5317,19 +6425,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5344,84 +6452,84 @@
       <c r="A7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="67"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="68"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5429,35 +6537,35 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>90</v>
+      <c r="B9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -5494,320 +6602,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="46"/>
+    <col min="2" max="15" width="26.625" style="46" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="29" t="s">
+      <c r="A1" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="44">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="67">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
+      <c r="B2" s="70">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70">
         <f>SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="67"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="51" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="44">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="70">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="67"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5836,7 +6952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -5850,19 +6966,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5877,84 +6993,84 @@
       <c r="A2" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="67">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
+      <c r="B2" s="69">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69">
         <f>SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="67"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="68"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5962,35 +7078,35 @@
       <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>110</v>
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5999,19 +7115,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -6026,84 +7142,84 @@
       <c r="A7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69">
         <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="67"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="68"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6111,38 +7227,42 @@
       <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
@@ -6174,1038 +7294,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="67">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
-        <f>SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="67"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="67">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="67"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="46"/>
-    <col min="2" max="15" width="26.625" style="46" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="44">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="70">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70">
-        <f>SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="70"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="51" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="44">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="70">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="70"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>38</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="67">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67">
-        <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
-        <f>SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
-        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="67"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>39</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="67">
-        <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="67"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="179">
   <si>
     <t>分组</t>
   </si>
@@ -737,20 +737,51 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>参加欧阳CA搭建培训+去太原路上（外出 太原）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队总后勤部OA项目（加班）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>苏州清研捷运物流无纸化交流
+（本地外出 清河金泰富地大厦1303）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福消费金融无纸化新渠道接入上线支撑（本地外出 富力大厦）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国食品信息追溯大会物流方案PPT编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>售前工作交接事宜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行车贷无纸化交流
+（外出  郑州）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众汽车现场投标支撑
 （本地外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>参加欧阳CA搭建培训+去太原路上（外出 太原）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂未定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手头实施项目梳理&amp;扫尾</t>
+    <t>徽商无纸化+证据保全交流
+(外地外出  合肥)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>售前工作涉及到的Demo熟悉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>售前工作涉及到的行业案例熟悉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +793,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1039,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1420,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,6 +1658,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2089,13 +2133,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2113,47 +2157,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2246,13 +2290,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2270,47 +2314,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2435,13 +2479,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -2459,47 +2503,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="75">
         <f>DATE(2017,10,2)</f>
         <v>43010</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75">
         <f>SUM(B2+1)</f>
         <v>43011</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75">
         <f>SUM(D2+1)</f>
         <v>43012</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43013</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43014</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73">
+      <c r="K2" s="75"/>
+      <c r="L2" s="75">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43015</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43016</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
@@ -2584,13 +2628,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -2608,47 +2652,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="75">
         <f>B2+7</f>
         <v>43017</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43018</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43019</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43020</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43021</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="K7" s="75"/>
+      <c r="L7" s="75">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43022</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73">
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43023</v>
       </c>
-      <c r="O7" s="73"/>
+      <c r="O7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
       </c>
@@ -2777,13 +2821,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -2801,47 +2845,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="75">
         <f>DATE(2017,10,16)</f>
         <v>43024</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75">
         <f>SUM(B2+1)</f>
         <v>43025</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75">
         <f>SUM(D2+1)</f>
         <v>43026</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43027</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43028</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73">
+      <c r="K2" s="75"/>
+      <c r="L2" s="75">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43029</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43030</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
@@ -2928,13 +2972,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -2952,47 +2996,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="75">
         <f>B2+7</f>
         <v>43031</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43032</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43033</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43034</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43035</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="K7" s="75"/>
+      <c r="L7" s="75">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43036</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73">
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43037</v>
       </c>
-      <c r="O7" s="73"/>
+      <c r="O7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
       </c>
@@ -3109,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3121,13 +3165,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -3145,47 +3189,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="75">
         <f>DATE(2017,10,30)</f>
         <v>43038</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75">
         <f>SUM(B2+1)</f>
         <v>43039</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75">
         <f>SUM(D2+1)</f>
         <v>43040</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43041</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43042</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73">
+      <c r="K2" s="75"/>
+      <c r="L2" s="75">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43043</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43044</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
@@ -3270,13 +3314,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -3294,47 +3338,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="75">
         <f>B2+7</f>
         <v>43045</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43046</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43047</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43048</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43049</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="K7" s="75"/>
+      <c r="L7" s="75">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43050</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73">
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43051</v>
       </c>
-      <c r="O7" s="73"/>
+      <c r="O7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
       </c>
@@ -3451,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3463,13 +3507,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -3487,47 +3531,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="75">
         <f>DATE(2017,11,13)</f>
         <v>43052</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75">
         <f>SUM(B2+1)</f>
         <v>43053</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75">
         <f>SUM(D2+1)</f>
         <v>43054</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43055</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43056</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73">
+      <c r="K2" s="75"/>
+      <c r="L2" s="75">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43057</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43058</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="66" t="s">
         <v>141</v>
       </c>
@@ -3581,11 +3625,11 @@
       <c r="C4" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="68" t="s">
         <v>164</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>165</v>
@@ -3605,20 +3649,24 @@
       <c r="K4" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="60"/>
+      <c r="L4" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="N4" s="60"/>
       <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -3636,47 +3684,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="75">
         <f>B2+7</f>
         <v>43059</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43060</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43061</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43062</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43063</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73">
+      <c r="K7" s="75"/>
+      <c r="L7" s="75">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43064</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73">
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43065</v>
       </c>
-      <c r="O7" s="73"/>
+      <c r="O7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="66" t="s">
         <v>2</v>
       </c>
@@ -3731,28 +3779,28 @@
         <v>167</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="60"/>
@@ -3791,14 +3839,323 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="56">
+        <f>WEEKNUM(B2)</f>
+        <v>48</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="75">
+        <f>DATE(2017,11,27)</f>
+        <v>43066</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75">
+        <f>SUM(B2+1)</f>
+        <v>43067</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75">
+        <f>SUM(D2+1)</f>
+        <v>43068</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43069</v>
+      </c>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43070</v>
+      </c>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43071</v>
+      </c>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43072</v>
+      </c>
+      <c r="O2" s="75"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="56">
+        <f>WEEKNUM(B7)</f>
+        <v>49</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="75">
+        <f>B2+7</f>
+        <v>43073</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43074</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43075</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43076</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43077</v>
+      </c>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43078</v>
+      </c>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43079</v>
+      </c>
+      <c r="O7" s="75"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3818,32 +4175,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="H1" s="80"/>
+      <c r="I1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="76" t="s">
+      <c r="J1" s="80"/>
+      <c r="K1" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="77"/>
+      <c r="L1" s="79"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3852,8 +4209,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3908,7 +4265,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3928,7 +4285,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3946,7 +4303,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="80"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3964,7 +4321,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="83" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3984,7 +4341,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -4002,7 +4359,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="80"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4020,7 +4377,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="83" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4040,7 +4397,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="79"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4058,7 +4415,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="80"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4096,7 +4453,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="83" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4116,7 +4473,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="79"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4134,7 +4491,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="80"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4152,7 +4509,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="81" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4172,7 +4529,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="79"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4190,7 +4547,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4208,7 +4565,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="83" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4228,7 +4585,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="79"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4246,7 +4603,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4304,7 +4661,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="83" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4324,7 +4681,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="80"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4342,7 +4699,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="84" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4362,7 +4719,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="82"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4380,7 +4737,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="82"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4398,7 +4755,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="82"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4416,7 +4773,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="82"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4434,7 +4791,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="82"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4452,7 +4809,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="82"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4470,7 +4827,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="82"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4488,7 +4845,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="82"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4506,7 +4863,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="82"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4881,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="82"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4581,13 +4938,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4605,47 +4962,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4730,13 +5087,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4754,47 +5111,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -4917,13 +5274,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4941,47 +5298,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
@@ -5066,13 +5423,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5090,47 +5447,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -5254,13 +5611,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5278,47 +5635,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f>SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -5403,13 +5760,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5427,47 +5784,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -5594,13 +5951,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5618,47 +5975,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f>SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
@@ -5745,13 +6102,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5769,47 +6126,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="37" t="s">
         <v>2</v>
       </c>
@@ -5936,13 +6293,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5960,47 +6317,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,8,7)</f>
         <v>42954</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42955</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f>SUM(D2+1)</f>
         <v>42956</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42957</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42958</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42959</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42960</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -6085,13 +6442,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6109,47 +6466,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>42961</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42962</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42963</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42964</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42965</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42966</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42967</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -6276,13 +6633,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -6300,47 +6657,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,8,21)</f>
         <v>42968</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42969</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f>SUM(D2+1)</f>
         <v>42970</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42971</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42972</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42973</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42974</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
@@ -6425,13 +6782,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6449,47 +6806,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>42975</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42976</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42977</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42978</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42979</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42980</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42981</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
@@ -6618,13 +6975,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="43" t="s">
         <v>58</v>
       </c>
@@ -6642,47 +6999,47 @@
       <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="72">
         <f>DATE(2017,9,4)</f>
         <v>42982</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42983</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
         <v>42984</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42985</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42986</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42987</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42988</v>
       </c>
-      <c r="O2" s="70"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="72"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
@@ -6767,13 +7124,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="43" t="s">
         <v>58</v>
       </c>
@@ -6791,47 +7148,47 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42989</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42990</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42991</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42992</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42993</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42994</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42995</v>
       </c>
-      <c r="O7" s="70"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="47" t="s">
         <v>2</v>
       </c>
@@ -6966,13 +7323,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -6990,47 +7347,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="71">
         <f>DATE(2017,9,18)</f>
         <v>42996</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71">
         <f>SUM(B2+1)</f>
         <v>42997</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71">
         <f>SUM(D2+1)</f>
         <v>42998</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42999</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43000</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69">
+      <c r="K2" s="71"/>
+      <c r="L2" s="71">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43001</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43002</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -7115,13 +7472,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -7139,47 +7496,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="71">
         <f>B2+7</f>
         <v>43003</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43004</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43005</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43006</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43007</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43008</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43009</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="42" t="s">
         <v>2</v>
       </c>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -25,15 +25,16 @@
     <sheet name="42-43周" sheetId="16" r:id="rId11"/>
     <sheet name="44-45周" sheetId="17" r:id="rId12"/>
     <sheet name="46-47周" sheetId="18" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="19" r:id="rId14"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId15"/>
+    <sheet name="48-49周" sheetId="19" r:id="rId14"/>
+    <sheet name="50周（计划）" sheetId="20" r:id="rId15"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="197">
   <si>
     <t>分组</t>
   </si>
@@ -762,26 +763,105 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>郑州银行车贷无纸化交流
-（外出  郑州）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大众汽车现场投标支撑
-（本地外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>徽商无纸化+证据保全交流
 (外地外出  合肥)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>售前工作涉及到的Demo熟悉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>售前工作涉及到的行业案例熟悉</t>
+    <t>大众汽车无纸化标书编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福消费金融版本验收
+（本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生财富无纸化交流
+（本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly schedule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去徽商的路上
+(外地外出  合肥)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对徽商的无纸化交流准备PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>五矿信托无纸化交流
+（北京本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备徽商交流后的答复材料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海银行柜面无纸化交流
+（外地外出 西宁）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去西宁的路上
+（外地外出 西宁）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回京的路上
+（外地外出 西宁）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审中原银行房抵贷电子保函的方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化售前方案梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检
+（本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对无纸化方案发布计划+明年售前规划交接。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京现代无纸化生产部署
+（本地外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化方案梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建人行OA系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建顺丰的电子合同系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉人行OA系统并整理成售前交流ppt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉顺丰的电子合同系统并整理成售前交流ppt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化售前规划</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1458,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,6 +1744,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2133,13 +2216,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2157,47 +2240,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2290,13 +2373,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2314,47 +2397,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2479,13 +2562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -2503,47 +2586,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="76">
         <f>DATE(2017,10,2)</f>
         <v>43010</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76">
         <f>SUM(B2+1)</f>
         <v>43011</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76">
         <f>SUM(D2+1)</f>
         <v>43012</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43013</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43014</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43015</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75">
+      <c r="M2" s="76"/>
+      <c r="N2" s="76">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43016</v>
       </c>
-      <c r="O2" s="75"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
@@ -2628,13 +2711,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -2652,47 +2735,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="76">
         <f>B2+7</f>
         <v>43017</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43018</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43019</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43020</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43021</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43022</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43023</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
       </c>
@@ -2821,13 +2904,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -2845,47 +2928,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="76">
         <f>DATE(2017,10,16)</f>
         <v>43024</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76">
         <f>SUM(B2+1)</f>
         <v>43025</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76">
         <f>SUM(D2+1)</f>
         <v>43026</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43027</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43028</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43029</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75">
+      <c r="M2" s="76"/>
+      <c r="N2" s="76">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43030</v>
       </c>
-      <c r="O2" s="75"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
@@ -2972,13 +3055,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -2996,47 +3079,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="76">
         <f>B2+7</f>
         <v>43031</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43032</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43033</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43034</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43035</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43036</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43037</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
       </c>
@@ -3165,13 +3248,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -3189,47 +3272,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="76">
         <f>DATE(2017,10,30)</f>
         <v>43038</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76">
         <f>SUM(B2+1)</f>
         <v>43039</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76">
         <f>SUM(D2+1)</f>
         <v>43040</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43041</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43042</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43043</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75">
+      <c r="M2" s="76"/>
+      <c r="N2" s="76">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43044</v>
       </c>
-      <c r="O2" s="75"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="59" t="s">
         <v>141</v>
       </c>
@@ -3314,13 +3397,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -3338,47 +3421,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="76">
         <f>B2+7</f>
         <v>43045</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43046</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43047</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43048</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43049</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43050</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43051</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +3578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3507,13 +3590,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -3531,47 +3614,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="76">
         <f>DATE(2017,11,13)</f>
         <v>43052</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76">
         <f>SUM(B2+1)</f>
         <v>43053</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76">
         <f>SUM(D2+1)</f>
         <v>43054</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43055</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43056</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43057</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75">
+      <c r="M2" s="76"/>
+      <c r="N2" s="76">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43058</v>
       </c>
-      <c r="O2" s="75"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="66" t="s">
         <v>141</v>
       </c>
@@ -3660,13 +3743,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -3684,47 +3767,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="76">
         <f>B2+7</f>
         <v>43059</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43060</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43061</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43062</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43063</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43064</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43065</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="66" t="s">
         <v>2</v>
       </c>
@@ -3841,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3853,13 +3936,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
@@ -3877,47 +3960,47 @@
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="76">
         <f>DATE(2017,11,27)</f>
         <v>43066</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76">
         <f>SUM(B2+1)</f>
         <v>43067</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76">
         <f>SUM(D2+1)</f>
         <v>43068</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>43069</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43070</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43071</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75">
+      <c r="M2" s="76"/>
+      <c r="N2" s="76">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43072</v>
       </c>
-      <c r="O2" s="75"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="67" t="s">
         <v>141</v>
       </c>
@@ -3966,34 +4049,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>176</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4002,13 +4085,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="A6" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="55" t="s">
         <v>58</v>
       </c>
@@ -4026,47 +4109,47 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="76">
         <f>B2+7</f>
         <v>43073</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43074</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43075</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43076</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43077</v>
       </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43078</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43079</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="67" t="s">
         <v>2</v>
       </c>
@@ -4107,6 +4190,348 @@
         <v>2</v>
       </c>
       <c r="O8" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="56">
+        <f>WEEKNUM(B2)</f>
+        <v>50</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="76">
+        <f>DATE(2017,12,11)</f>
+        <v>43080</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76">
+        <f>SUM(B2+1)</f>
+        <v>43081</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76">
+        <f>SUM(D2+1)</f>
+        <v>43082</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43083</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43084</v>
+      </c>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43085</v>
+      </c>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43086</v>
+      </c>
+      <c r="O2" s="76"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="56">
+        <f>WEEKNUM(B7)</f>
+        <v>51</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="76">
+        <f>B2+7</f>
+        <v>43087</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43088</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43089</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43090</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43091</v>
+      </c>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43092</v>
+      </c>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43093</v>
+      </c>
+      <c r="O7" s="76"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="69" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4159,7 +4584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -4175,32 +4600,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="79"/>
+      <c r="L1" s="80"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -4209,8 +4634,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4265,7 +4690,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="84" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4285,7 +4710,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4303,7 +4728,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="82"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4321,7 +4746,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="84" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4341,7 +4766,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -4359,7 +4784,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="82"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4377,7 +4802,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4397,7 +4822,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4415,7 +4840,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="82"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4453,7 +4878,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="84" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4473,7 +4898,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4491,7 +4916,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="82"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4509,7 +4934,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4529,7 +4954,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="81"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4547,7 +4972,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="82"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4565,7 +4990,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="84" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4585,7 +5010,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4603,7 +5028,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="82"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4661,7 +5086,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="84" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4681,7 +5106,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="82"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4699,7 +5124,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="85" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4719,7 +5144,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4737,7 +5162,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4755,7 +5180,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="84"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4773,7 +5198,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="84"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4791,7 +5216,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="84"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4809,7 +5234,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="84"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4827,7 +5252,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="84"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4845,7 +5270,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="84"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4863,7 +5288,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="84"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +5306,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="84"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4938,13 +5363,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4962,47 +5387,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -5087,13 +5512,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5111,47 +5536,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -5274,13 +5699,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5298,47 +5723,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
@@ -5423,13 +5848,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5447,47 +5872,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -5611,13 +6036,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5635,47 +6060,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -5760,13 +6185,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5784,47 +6209,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -5951,13 +6376,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5975,47 +6400,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
@@ -6102,13 +6527,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6126,47 +6551,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="37" t="s">
         <v>2</v>
       </c>
@@ -6293,13 +6718,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -6317,47 +6742,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,8,7)</f>
         <v>42954</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42955</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
         <v>42956</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42957</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42958</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42959</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42960</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -6442,13 +6867,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6466,47 +6891,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42961</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42962</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42963</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42964</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42965</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42966</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42967</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -6633,13 +7058,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -6657,47 +7082,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,8,21)</f>
         <v>42968</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42969</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
         <v>42970</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42971</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42972</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42973</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42974</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
@@ -6782,13 +7207,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6806,47 +7231,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>42975</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42976</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42977</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42978</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42979</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42980</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42981</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
@@ -6975,13 +7400,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="43" t="s">
         <v>58</v>
       </c>
@@ -6999,47 +7424,47 @@
       <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="73">
         <f>DATE(2017,9,4)</f>
         <v>42982</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73">
         <f>SUM(B2+1)</f>
         <v>42983</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73">
         <f>SUM(D2+1)</f>
         <v>42984</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42985</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>42986</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>42987</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>42988</v>
       </c>
-      <c r="O2" s="72"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="74"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
@@ -7124,13 +7549,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="43" t="s">
         <v>58</v>
       </c>
@@ -7148,47 +7573,47 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="73">
         <f>B2+7</f>
         <v>42989</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>42990</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42991</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42992</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42993</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72">
+      <c r="K7" s="73"/>
+      <c r="L7" s="73">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42994</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72">
+      <c r="M7" s="73"/>
+      <c r="N7" s="73">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42995</v>
       </c>
-      <c r="O7" s="72"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="47" t="s">
         <v>2</v>
       </c>
@@ -7323,13 +7748,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -7347,47 +7772,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="72">
         <f>DATE(2017,9,18)</f>
         <v>42996</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72">
         <f>SUM(B2+1)</f>
         <v>42997</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72">
         <f>SUM(D2+1)</f>
         <v>42998</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72">
         <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
         <v>42999</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
         <v>43000</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
         <v>43001</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
         <v>43002</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -7472,13 +7897,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -7496,47 +7921,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <f>B2+7</f>
         <v>43003</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <f t="shared" ref="D7" si="4">D2+7</f>
         <v>43004</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>43005</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>43006</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>43007</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>43008</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>43009</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="42" t="s">
         <v>2</v>
       </c>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="211">
   <si>
     <t>分组</t>
   </si>
@@ -882,6 +882,52 @@
   </si>
   <si>
     <t>华泰证券投标文件编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云无纸化测试环境搭建和恢复</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑银行交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中软军队OA项目测试部署和支撑
+（北京外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东网银联盟无纸化前置
+项目支撑
+（外地出差 济南）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化售前工作交接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券讲标PPT编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆银行无纸化交流
+（外地外出 乌鲁木齐）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>从新疆银行无纸化交流后返京
+（外地外出 乌鲁木齐）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理无纸化售前工作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券现场讲标
+（外地出差 南京）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1772,15 +1818,15 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1799,6 +1845,15 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1812,15 +1867,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2239,13 +2285,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2266,41 +2312,41 @@
       <c r="A2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="73">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="72"/>
@@ -2396,13 +2442,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2423,41 +2469,41 @@
       <c r="A7" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="73">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
+      <c r="K7" s="73"/>
+      <c r="L7" s="73">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
+      <c r="M7" s="73"/>
+      <c r="N7" s="73">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="72"/>
@@ -2545,16 +2591,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2563,6 +2599,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2875,6 +2921,350 @@
       </c>
       <c r="K9" s="60" t="s">
         <v>144</v>
+      </c>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="15" width="26.625" style="58" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="56">
+        <f>WEEKNUM(B2)</f>
+        <v>42</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="77">
+        <f>DATE(2017,10,16)</f>
+        <v>43024</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77">
+        <f>SUM(B2+1)</f>
+        <v>43025</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77">
+        <f>SUM(D2+1)</f>
+        <v>43026</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77">
+        <f t="shared" ref="H2" si="0">SUM(F2+1)</f>
+        <v>43027</v>
+      </c>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43028</v>
+      </c>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43029</v>
+      </c>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43030</v>
+      </c>
+      <c r="O2" s="77"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="79"/>
+      <c r="B3" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="56">
+        <f>WEEKNUM(B7)</f>
+        <v>43</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="77">
+        <f>B2+7</f>
+        <v>43031</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43032</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43033</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43034</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43035</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43036</v>
+      </c>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43037</v>
+      </c>
+      <c r="O7" s="77"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" 